--- a/results_xlsx/chybi_cvicici.xlsx
+++ b/results_xlsx/chybi_cvicici.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="98">
   <si>
     <t>katedra</t>
   </si>
@@ -34,6 +34,9 @@
     <t>jednotkaCviceni</t>
   </si>
   <si>
+    <t>KBI</t>
+  </si>
+  <si>
     <t>KGEO</t>
   </si>
   <si>
@@ -46,9 +49,6 @@
     <t>KI</t>
   </si>
   <si>
-    <t>KBI</t>
-  </si>
-  <si>
     <t>CNB</t>
   </si>
   <si>
@@ -58,6 +58,12 @@
     <t>KMA</t>
   </si>
   <si>
+    <t>0023</t>
+  </si>
+  <si>
+    <t>0033</t>
+  </si>
+  <si>
     <t>0099</t>
   </si>
   <si>
@@ -88,6 +94,12 @@
     <t>B310</t>
   </si>
   <si>
+    <t>B314</t>
+  </si>
+  <si>
+    <t>B315</t>
+  </si>
+  <si>
     <t>B400</t>
   </si>
   <si>
@@ -233,6 +245,9 @@
   </si>
   <si>
     <t>N002</t>
+  </si>
+  <si>
+    <t>N007</t>
   </si>
   <si>
     <t>N300</t>
@@ -354,8 +369,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:F85" totalsRowShown="0">
-  <autoFilter ref="A1:F85"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:F89" totalsRowShown="0">
+  <autoFilter ref="A1:F89"/>
   <tableColumns count="6">
     <tableColumn id="1" name="katedra" dataDxfId="0"/>
     <tableColumn id="2" name="zkratka" dataDxfId="0"/>
@@ -653,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -688,13 +703,13 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -706,31 +721,31 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -742,13 +757,13 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -760,193 +775,193 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E11" s="2">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E15" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E16" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -954,71 +969,71 @@
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E17" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E18" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E19" s="2">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E20" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1030,67 +1045,67 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E21" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E22" s="2">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E23" s="2">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E24" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1102,67 +1117,67 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E26" s="2">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E27" s="2">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E28" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1170,89 +1185,89 @@
         <v>7</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E29" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E31" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E32" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E33" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1264,157 +1279,157 @@
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E34" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E35" s="2">
         <v>2</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E36" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E37" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E38" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E39" s="2">
         <v>2</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E40" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E41" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E42" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1426,481 +1441,481 @@
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E43" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E44" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2">
         <v>6</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2">
         <v>8</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E55" s="2">
         <v>4</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E59" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E60" s="2">
         <v>2</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E62" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E63" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2">
         <v>3</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E69" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1908,107 +1923,107 @@
         <v>8</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E74" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E75" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2016,179 +2031,251 @@
         <v>9</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E76" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E77" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E78" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E79" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E80" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E81" s="2">
         <v>2</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E82" s="2">
         <v>3</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E83" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E84" s="2">
         <v>2</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E85" s="2">
         <v>2</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E86" s="2">
+        <v>3</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E87" s="2">
+        <v>3</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E88" s="2">
+        <v>2</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E89" s="2">
+        <v>2</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/results_xlsx/chybi_cvicici.xlsx
+++ b/results_xlsx/chybi_cvicici.xlsx
@@ -1182,7 +1182,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>40</v>
@@ -1192,15 +1192,15 @@
         <v>93</v>
       </c>
       <c r="E29" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>40</v>
@@ -1210,10 +1210,10 @@
         <v>93</v>
       </c>
       <c r="E30" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1578,7 +1578,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>59</v>
@@ -1588,15 +1588,15 @@
         <v>93</v>
       </c>
       <c r="E51" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>59</v>
@@ -1606,10 +1606,10 @@
         <v>93</v>
       </c>
       <c r="E52" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1848,7 +1848,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>73</v>
@@ -1858,7 +1858,7 @@
         <v>93</v>
       </c>
       <c r="E66" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>94</v>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>73</v>
@@ -1876,7 +1876,7 @@
         <v>93</v>
       </c>
       <c r="E67" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>94</v>
@@ -1902,7 +1902,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>75</v>
@@ -1912,15 +1912,15 @@
         <v>93</v>
       </c>
       <c r="E69" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>75</v>
@@ -1930,10 +1930,10 @@
         <v>93</v>
       </c>
       <c r="E70" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2244,7 +2244,7 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>92</v>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>92</v>

--- a/results_xlsx/chybi_cvicici.xlsx
+++ b/results_xlsx/chybi_cvicici.xlsx
@@ -1254,7 +1254,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>43</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>43</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>57</v>
@@ -1534,7 +1534,7 @@
         <v>93</v>
       </c>
       <c r="E48" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>95</v>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>57</v>
@@ -1552,7 +1552,7 @@
         <v>93</v>
       </c>
       <c r="E49" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>95</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>73</v>
@@ -1858,7 +1858,7 @@
         <v>93</v>
       </c>
       <c r="E66" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>94</v>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>73</v>
@@ -1876,7 +1876,7 @@
         <v>93</v>
       </c>
       <c r="E67" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>94</v>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>76</v>
@@ -1948,15 +1948,15 @@
         <v>93</v>
       </c>
       <c r="E71" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>76</v>
@@ -1966,10 +1966,10 @@
         <v>93</v>
       </c>
       <c r="E72" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2244,7 +2244,7 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>92</v>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>92</v>

--- a/results_xlsx/chybi_cvicici.xlsx
+++ b/results_xlsx/chybi_cvicici.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="98">
   <si>
     <t>katedra</t>
   </si>
@@ -32,12 +32,291 @@
   </si>
   <si>
     <t>jednotkaCviceni</t>
+  </si>
+  <si>
+    <t>KBI</t>
+  </si>
+  <si>
+    <t>KGEO</t>
+  </si>
+  <si>
+    <t>KFY</t>
+  </si>
+  <si>
+    <t>KCH</t>
+  </si>
+  <si>
+    <t>KI</t>
+  </si>
+  <si>
+    <t>CNB</t>
+  </si>
+  <si>
+    <t>KPRF</t>
+  </si>
+  <si>
+    <t>KMA</t>
+  </si>
+  <si>
+    <t>0023</t>
+  </si>
+  <si>
+    <t>0033</t>
+  </si>
+  <si>
+    <t>0099</t>
+  </si>
+  <si>
+    <t>0121</t>
+  </si>
+  <si>
+    <t>0165</t>
+  </si>
+  <si>
+    <t>0199</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>B210</t>
+  </si>
+  <si>
+    <t>B304</t>
+  </si>
+  <si>
+    <t>B308</t>
+  </si>
+  <si>
+    <t>B309</t>
+  </si>
+  <si>
+    <t>B310</t>
+  </si>
+  <si>
+    <t>B314</t>
+  </si>
+  <si>
+    <t>B315</t>
+  </si>
+  <si>
+    <t>B400</t>
+  </si>
+  <si>
+    <t>B412</t>
+  </si>
+  <si>
+    <t>B509</t>
+  </si>
+  <si>
+    <t>BK100</t>
+  </si>
+  <si>
+    <t>BK201</t>
+  </si>
+  <si>
+    <t>BK309</t>
+  </si>
+  <si>
+    <t>BK310</t>
+  </si>
+  <si>
+    <t>BOP</t>
+  </si>
+  <si>
+    <t>BTE</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>DP2</t>
+  </si>
+  <si>
+    <t>E100</t>
+  </si>
+  <si>
+    <t>E101</t>
+  </si>
+  <si>
+    <t>E105</t>
+  </si>
+  <si>
+    <t>E108</t>
+  </si>
+  <si>
+    <t>EXK</t>
+  </si>
+  <si>
+    <t>ICT2</t>
+  </si>
+  <si>
+    <t>IT2</t>
+  </si>
+  <si>
+    <t>K0900</t>
+  </si>
+  <si>
+    <t>K101</t>
+  </si>
+  <si>
+    <t>K103</t>
+  </si>
+  <si>
+    <t>K201</t>
+  </si>
+  <si>
+    <t>K204</t>
+  </si>
+  <si>
+    <t>K205</t>
+  </si>
+  <si>
+    <t>K306</t>
+  </si>
+  <si>
+    <t>K405</t>
+  </si>
+  <si>
+    <t>K414</t>
+  </si>
+  <si>
+    <t>K506</t>
+  </si>
+  <si>
+    <t>K507</t>
+  </si>
+  <si>
+    <t>K604</t>
+  </si>
+  <si>
+    <t>K605</t>
+  </si>
+  <si>
+    <t>K607</t>
+  </si>
+  <si>
+    <t>K608</t>
+  </si>
+  <si>
+    <t>K609</t>
+  </si>
+  <si>
+    <t>KFYZ</t>
+  </si>
+  <si>
+    <t>KIT2</t>
+  </si>
+  <si>
+    <t>KN201</t>
+  </si>
+  <si>
+    <t>KOOD</t>
+  </si>
+  <si>
+    <t>M101</t>
+  </si>
+  <si>
+    <t>M104</t>
+  </si>
+  <si>
+    <t>M105</t>
+  </si>
+  <si>
+    <t>M111</t>
+  </si>
+  <si>
+    <t>M202</t>
+  </si>
+  <si>
+    <t>M300</t>
+  </si>
+  <si>
+    <t>M318</t>
+  </si>
+  <si>
+    <t>M400</t>
+  </si>
+  <si>
+    <t>MA207</t>
+  </si>
+  <si>
+    <t>MK205</t>
+  </si>
+  <si>
+    <t>N002</t>
+  </si>
+  <si>
+    <t>N007</t>
+  </si>
+  <si>
+    <t>N300</t>
+  </si>
+  <si>
+    <t>N302</t>
+  </si>
+  <si>
+    <t>N313</t>
+  </si>
+  <si>
+    <t>N412</t>
+  </si>
+  <si>
+    <t>NA14</t>
+  </si>
+  <si>
+    <t>NME</t>
+  </si>
+  <si>
+    <t>OOD</t>
+  </si>
+  <si>
+    <t>P202</t>
+  </si>
+  <si>
+    <t>P210</t>
+  </si>
+  <si>
+    <t>P300</t>
+  </si>
+  <si>
+    <t>P330</t>
+  </si>
+  <si>
+    <t>P421</t>
+  </si>
+  <si>
+    <t>P507</t>
+  </si>
+  <si>
+    <t>P618</t>
+  </si>
+  <si>
+    <t>PD11</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>HOD/TYD</t>
+  </si>
+  <si>
+    <t>HOD/SEM</t>
+  </si>
+  <si>
+    <t>TYD/SEM</t>
+  </si>
+  <si>
+    <t>DNU/SEM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0;[Red]-#,##0"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -67,8 +346,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -84,8 +369,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:F2" totalsRowShown="0">
-  <autoFilter ref="A1:F2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:F89" totalsRowShown="0">
+  <autoFilter ref="A1:F89"/>
   <tableColumns count="6">
     <tableColumn id="1" name="katedra" dataDxfId="0"/>
     <tableColumn id="2" name="zkratka" dataDxfId="0"/>
@@ -383,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -409,6 +694,1590 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="2">
+        <v>80</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="2">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="2">
+        <v>8</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="2">
+        <v>80</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="2">
+        <v>12</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="2">
+        <v>60</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="2">
+        <v>24</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="2">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="2">
+        <v>5</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="2">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="2">
+        <v>4</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="2">
+        <v>4</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="2">
+        <v>12</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="2">
+        <v>8</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="2">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="2">
+        <v>2</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="2">
+        <v>5</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="2">
+        <v>6</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" s="2">
+        <v>6</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" s="2">
+        <v>12</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" s="2">
+        <v>6</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" s="2">
+        <v>20</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" s="2">
+        <v>4</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" s="2">
+        <v>5</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="2">
+        <v>6</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54" s="2">
+        <v>8</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E55" s="2">
+        <v>4</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E56" s="2">
+        <v>12</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E57" s="2">
+        <v>8</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E58" s="2">
+        <v>4</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E59" s="2">
+        <v>5</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E60" s="2">
+        <v>2</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61" s="2">
+        <v>2</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E62" s="2">
+        <v>3</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E63" s="2">
+        <v>2</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E64" s="2">
+        <v>3</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E65" s="2">
+        <v>2</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E66" s="2">
+        <v>2</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E67" s="2">
+        <v>3</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E69" s="2">
+        <v>3</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E70" s="2">
+        <v>8</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E71" s="2">
+        <v>2</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E72" s="2">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E73" s="2">
+        <v>2</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E74" s="2">
+        <v>3</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E75" s="2">
+        <v>5</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E76" s="2">
+        <v>4</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E77" s="2">
+        <v>12</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E79" s="2">
+        <v>2</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E80" s="2">
+        <v>1</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E81" s="2">
+        <v>2</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E82" s="2">
+        <v>3</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E83" s="2">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E84" s="2">
+        <v>2</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E85" s="2">
+        <v>2</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E86" s="2">
+        <v>3</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E87" s="2">
+        <v>3</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E88" s="2">
+        <v>2</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E89" s="2">
+        <v>2</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/results_xlsx/chybi_cvicici.xlsx
+++ b/results_xlsx/chybi_cvicici.xlsx
@@ -1524,7 +1524,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>57</v>
@@ -1534,7 +1534,7 @@
         <v>93</v>
       </c>
       <c r="E48" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>95</v>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>57</v>
@@ -1552,7 +1552,7 @@
         <v>93</v>
       </c>
       <c r="E49" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>95</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>73</v>
@@ -1858,7 +1858,7 @@
         <v>93</v>
       </c>
       <c r="E66" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>94</v>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>73</v>
@@ -1876,7 +1876,7 @@
         <v>93</v>
       </c>
       <c r="E67" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>94</v>
@@ -1902,7 +1902,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>75</v>
@@ -1912,15 +1912,15 @@
         <v>93</v>
       </c>
       <c r="E69" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>75</v>
@@ -1930,15 +1930,15 @@
         <v>93</v>
       </c>
       <c r="E70" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>76</v>
@@ -1948,15 +1948,15 @@
         <v>93</v>
       </c>
       <c r="E71" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>76</v>
@@ -1966,10 +1966,10 @@
         <v>93</v>
       </c>
       <c r="E72" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:6">
